--- a/biology/Histoire de la zoologie et de la botanique/Henri_Jean_Humbert/Henri_Jean_Humbert.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henri_Jean_Humbert/Henri_Jean_Humbert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Jean Humbert est un botaniste français, né le 24 janvier 1887 à Paris 4e et mort le 20 octobre 1967 à Bazemont[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Jean Humbert est un botaniste français, né le 24 janvier 1887 à Paris 4e et mort le 20 octobre 1967 à Bazemont.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Rennes où il obtient un baccalauréat en 1904, puis un certificat de sciences physiques, chimiques et naturelles en 1905. Il obtient sa licence ès sciences naturelles à Paris en 1909, puis un diplôme d’études supérieures de botanique en 1910.
 Humbert voyage à Madagascar en 1912 avant d’obtenir en 1913 un poste d’assistant à la faculté de Clermont-Ferrand. Après la guerre, il obtient la chaire de botanique en 1919, puis assure l’enseignement de la botanique de 1920 à 1922 à l’Institut de chimie et de technologie industrielle.
 Il part en 1922 à Alger, où il devient chef de travaux à la faculté des sciences. En 1931, il succède à Henry Lecomte (1856-1934) à la chaire de botanique du Muséum national d'histoire naturelle. Il entre à l’Académie des sciences en 1951 et prend sa retraite en 1957.
-Humbert réalise de très nombreuses missions en Afrique, en Amérique du Sud et à Madagascar, notamment en compagne de l'ingénieur agronome Gilbert Cours-Darne avec lequel il publie en 1965 la « Carte de la végétation de Madagascar »[2]. Il dirige notamment la publication de la Flore de Madagascar et des Comores à laquelle collabore divers botanistes, dont Joseph Marie Henry Alfred Perrier de la Bâthie (1873-1958) ou Henri Chermezon (1885-1939). Il dirige aussi la Flore générale de l'Indo-Chine. Il est l'un des fondateurs de la Station internationale de géobotanique méditerranéenne et alpine de Montpellier.
+Humbert réalise de très nombreuses missions en Afrique, en Amérique du Sud et à Madagascar, notamment en compagne de l'ingénieur agronome Gilbert Cours-Darne avec lequel il publie en 1965 la « Carte de la végétation de Madagascar ». Il dirige notamment la publication de la Flore de Madagascar et des Comores à laquelle collabore divers botanistes, dont Joseph Marie Henry Alfred Perrier de la Bâthie (1873-1958) ou Henri Chermezon (1885-1939). Il dirige aussi la Flore générale de l'Indo-Chine. Il est l'un des fondateurs de la Station internationale de géobotanique méditerranéenne et alpine de Montpellier.
 Il est président de la Société botanique de France de 1940 à 1944.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les Composées de Madagascar (imprimerie E. Lanier, Caen, 1923).
 Végétation du Grand Atlas Marocain oriental. Exploration botanique de l'Ari Ayachi (Alger, 1924).
